--- a/empty.xlsx
+++ b/empty.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>סיסמא שגויה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F5:L12"/>
+  <dimension ref="F5:L17"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -451,6 +454,11 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F5:L12"/>
